--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Battle.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Battle.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project_BF\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B47BC-BF1C-4CAD-BF83-03D1B95FE432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94573336-1B1C-40CB-B11B-6ED84FB2FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21270" yWindow="570" windowWidth="14490" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleReward" sheetId="1" r:id="rId1"/>
+    <sheet name="ArrowDodge" sheetId="2" r:id="rId2"/>
+    <sheet name="ArrowDodgeItem" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>GameMode</t>
   </si>
@@ -55,32 +69,68 @@
     <t>Champion</t>
   </si>
   <si>
-    <t>Survival</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>Solo</t>
   </si>
   <si>
-    <t>SurvivalSmall</t>
-  </si>
-  <si>
-    <t>TeamSmall</t>
-  </si>
-  <si>
-    <t>IslandSolo</t>
-  </si>
-  <si>
-    <t>DodgeSolo</t>
+    <t>ItemGetPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowDodgePoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowGetPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemDurationTick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemRegenPeriodTick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayCountMax</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeCostGold</t>
+  </si>
+  <si>
+    <t>RefreshDurationMinute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -95,21 +145,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,43 +180,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.499984740745262"/>
+        <fgColor theme="5" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +222,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -205,16 +231,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,28 +248,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1404,13 +1420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
@@ -1427,47 +1443,47 @@
     <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11" ht="15.95" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.95" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1476,654 +1492,59 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K2" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5">
-        <v>8</v>
-      </c>
-      <c r="H3" s="5">
-        <v>6</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5">
-        <v>6</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3</v>
-      </c>
-      <c r="I4" s="5">
-        <v>2</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>-3</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I3" s="3">
         <v>-4</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J3" s="3">
         <v>-5</v>
       </c>
-      <c r="K5" s="5">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5">
-        <v>-6</v>
-      </c>
-      <c r="I6" s="5">
-        <v>-8</v>
-      </c>
-      <c r="J6" s="5">
-        <v>-9</v>
-      </c>
-      <c r="K6" s="5">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>-9</v>
-      </c>
-      <c r="I7" s="5">
-        <v>-12</v>
-      </c>
-      <c r="J7" s="5">
-        <v>-13</v>
-      </c>
-      <c r="K7" s="5">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="7">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>50</v>
-      </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7">
-        <v>10</v>
-      </c>
-      <c r="H8" s="7">
-        <v>8</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6</v>
-      </c>
-      <c r="J8" s="7">
-        <v>5</v>
-      </c>
-      <c r="K8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7">
-        <v>10</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>-9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>-12</v>
-      </c>
-      <c r="J9" s="7">
-        <v>-13</v>
-      </c>
-      <c r="K9" s="7">
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9">
-        <v>7</v>
-      </c>
-      <c r="G10" s="9">
-        <v>7</v>
-      </c>
-      <c r="H10" s="9">
-        <v>6</v>
-      </c>
-      <c r="I10" s="9">
-        <v>5</v>
-      </c>
-      <c r="J10" s="9">
-        <v>4</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>-3</v>
-      </c>
-      <c r="I11" s="9">
-        <v>-4</v>
-      </c>
-      <c r="J11" s="9">
-        <v>-5</v>
-      </c>
-      <c r="K11" s="9">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>20</v>
-      </c>
-      <c r="F12" s="11">
-        <v>8</v>
-      </c>
-      <c r="G12" s="11">
-        <v>8</v>
-      </c>
-      <c r="H12" s="11">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11">
-        <v>3</v>
-      </c>
-      <c r="J12" s="11">
-        <v>3</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11">
-        <v>10</v>
-      </c>
-      <c r="F13" s="11">
-        <v>4</v>
-      </c>
-      <c r="G13" s="11">
-        <v>4</v>
-      </c>
-      <c r="H13" s="11">
-        <v>-3</v>
-      </c>
-      <c r="I13" s="11">
-        <v>-4</v>
-      </c>
-      <c r="J13" s="11">
-        <v>-5</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11">
-        <v>3</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11">
-        <v>5</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
-        <v>-6</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-8</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-9</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15" s="13">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>20</v>
-      </c>
-      <c r="F15" s="13">
-        <v>8</v>
-      </c>
-      <c r="G15" s="13">
-        <v>8</v>
-      </c>
-      <c r="H15" s="13">
-        <v>7</v>
-      </c>
-      <c r="I15" s="13">
-        <v>6</v>
-      </c>
-      <c r="J15" s="13">
-        <v>5</v>
-      </c>
-      <c r="K15" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13">
-        <v>2</v>
-      </c>
-      <c r="C16" s="13">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>-4</v>
-      </c>
-      <c r="I16" s="13">
-        <v>-5</v>
-      </c>
-      <c r="J16" s="13">
-        <v>-6</v>
-      </c>
-      <c r="K16" s="13">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15">
-        <v>2</v>
-      </c>
-      <c r="C17" s="15">
-        <v>1</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>15</v>
-      </c>
-      <c r="F17" s="15">
-        <v>7</v>
-      </c>
-      <c r="G17" s="15">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15">
-        <v>6</v>
-      </c>
-      <c r="I17" s="15">
-        <v>5</v>
-      </c>
-      <c r="J17" s="15">
-        <v>4</v>
-      </c>
-      <c r="K17" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="15">
-        <v>2</v>
-      </c>
-      <c r="C18" s="15">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15">
-        <v>5</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>-3</v>
-      </c>
-      <c r="I18" s="15">
-        <v>-4</v>
-      </c>
-      <c r="J18" s="15">
-        <v>-5</v>
-      </c>
-      <c r="K18" s="15">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17">
-        <v>2</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17">
-        <v>7</v>
-      </c>
-      <c r="G19" s="17">
-        <v>7</v>
-      </c>
-      <c r="H19" s="17">
-        <v>6</v>
-      </c>
-      <c r="I19" s="17">
-        <v>5</v>
-      </c>
-      <c r="J19" s="17">
-        <v>4</v>
-      </c>
-      <c r="K19" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="17">
-        <v>2</v>
-      </c>
-      <c r="C20" s="17">
-        <v>1</v>
-      </c>
-      <c r="D20" s="17">
-        <v>2</v>
-      </c>
-      <c r="E20" s="17">
-        <v>5</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>-3</v>
-      </c>
-      <c r="I20" s="17">
-        <v>-4</v>
-      </c>
-      <c r="J20" s="17">
-        <v>-5</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="K3" s="3">
         <v>-6</v>
       </c>
     </row>
@@ -2135,4 +1556,144 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F7924F-9803-45A6-88F9-3B59789CC697}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>100000000</v>
+      </c>
+      <c r="E2">
+        <v>40000000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>100</v>
+      </c>
+      <c r="H2" s="5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B6F6A-041F-46BB-BC1F-E7364D211CA9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Battle.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Battle.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94573336-1B1C-40CB-B11B-6ED84FB2FDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81B36F3-9B14-4D49-A9FF-599881041E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="570" windowWidth="14490" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleReward" sheetId="1" r:id="rId1"/>
-    <sheet name="ArrowDodge" sheetId="2" r:id="rId2"/>
-    <sheet name="ArrowDodgeItem" sheetId="3" r:id="rId3"/>
+    <sheet name="Multi" sheetId="7" r:id="rId2"/>
+    <sheet name="MultiMatchDeniedDuration" sheetId="8" r:id="rId3"/>
+    <sheet name="ArrowDodge" sheetId="2" r:id="rId4"/>
+    <sheet name="ArrowDodgeItem" sheetId="3" r:id="rId5"/>
+    <sheet name="FlyAway" sheetId="4" r:id="rId6"/>
+    <sheet name="FlyAwayItem" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +37,710 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Balloon01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{D3D77FDC-A357-4A3D-A842-7828EE7AA584}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>전투중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>접종</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>가능한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>접종해도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처벌이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>없는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A35548E9-9B8C-4202-AE57-D7C0462AFC57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>접종으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처벌이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>진행되는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>매칭제약시간이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>아닌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>총</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>처벌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>))</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Balloon01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FAE068E4-6884-454D-B229-28C0A82CA3BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>접속종료</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인해</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무효판이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9A4E824F-15D7-4984-9C22-AAF47A2BB28C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>매칭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>제약</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>GameMode</t>
   </si>
@@ -70,10 +776,6 @@
   </si>
   <si>
     <t>Solo</t>
-  </si>
-  <si>
-    <t>ItemGetPoint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ArrowDodgePoint</t>
@@ -92,10 +794,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Weight</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ItemType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -124,13 +822,65 @@
   </si>
   <si>
     <t>RefreshDurationMinute</t>
+  </si>
+  <si>
+    <t>ChargeCostGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chicken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaminaCreateWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateWeight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddedGold</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddedStamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddedPoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisconnectableSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PunishMinutesForDisconnect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisconnectedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeniedSeconds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -163,6 +913,34 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1559,52 +2337,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F7924F-9803-45A6-88F9-3B59789CC697}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7D09F7-F21F-4C7D-996D-4CBDCC95C09A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5">
+        <f>60*24*3</f>
+        <v>4320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0810E2-8D05-45AB-9F3D-0EE8712039C7}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <f>10*60</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f>30*60</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <f>90*60</f>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>540*60</f>
+        <v>32400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F7924F-9803-45A6-88F9-3B59789CC697}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>10</v>
       </c>
@@ -1612,21 +2506,18 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>100000000</v>
       </c>
       <c r="D2">
-        <v>100000000</v>
-      </c>
-      <c r="E2">
         <v>40000000</v>
       </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
       <c r="F2" s="5">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G2" s="5">
-        <v>100</v>
-      </c>
-      <c r="H2" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1637,58 +2528,260 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200B6F6A-041F-46BB-BC1F-E7364D211CA9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="B2">
         <v>60</v>
       </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>12</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37175DF7-CD08-47A0-A858-2781FF3BAA11}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C05294-D54D-473B-B939-241234FFC9D3}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
